--- a/excel/fon_average_degree_connectivity.xlsx
+++ b/excel/fon_average_degree_connectivity.xlsx
@@ -369,12 +369,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Broj suseda</t>
+          <t>Stepen</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Procenat</t>
+          <t>Prosecan stepen suseda</t>
         </is>
       </c>
     </row>

--- a/excel/fon_average_degree_connectivity.xlsx
+++ b/excel/fon_average_degree_connectivity.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,65 +380,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4.666666666666667</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4.8125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>4.8125</v>
+        <v>4.371428571428571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>4.371428571428571</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
         <v>5.142857142857143</v>
       </c>
     </row>
